--- a/madre.xlsx
+++ b/madre.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\PagaDiario\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" firstSheet="8" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="carlos" sheetId="1" r:id="rId1"/>
@@ -32,22 +32,22 @@
     <sheet name="resultados" sheetId="4" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">ALBEIRO!$A$8:$A$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">ALEXANDER!$A$8:$A$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">ANDRES!$A$8:$A$50</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ANTONIO!$A$8:$A$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">BLANCA!$A$8:$A$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">carlos!$A$8:$A$60</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">CESAR!$A$8:$A$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">DAISON!$A$8:$A$50</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">ENRIQUE!$A$8:$A$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">JAVIER!$A$8:$A$47</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">JEFFERSON!$A$8:$A$53</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">JESUS!$A$8:$A$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">JHONFREDY!$A$8:$A$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">ROSIRI!$A$8:$A$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">WILMER!$A$8:$A$52</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">ZARCO!$A$8:$A$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">ALBEIRO!$A$7:$A$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">ALEXANDER!$A$7:$A$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">ANDRES!$A$7:$A$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ANTONIO!$A$7:$A$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">BLANCA!$A$7:$A$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">carlos!$A$7:$A$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">CESAR!$A$7:$A$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">DAISON!$A$7:$A$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">ENRIQUE!$A$7:$A$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">JAVIER!$A$7:$A$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">JEFFERSON!$A$7:$A$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">JESUS!$A$7:$A$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">JHONFREDY!$A$7:$A$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">ROSIRI!$A$7:$A$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">WILMER!$A$7:$A$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">ZARCO!$A$7:$A$9</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="53">
   <si>
     <t>CARLOS</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>no pagado</t>
-  </si>
-  <si>
-    <t>brtotal bruto</t>
   </si>
   <si>
     <t>total deuda</t>
@@ -230,9 +227,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0;[Red]&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0;[Red]&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +258,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -282,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -319,12 +322,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -339,10 +336,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -350,6 +347,36 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -369,15 +396,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$A$3" fmlaRange="$G$1:$G$12" noThreeD="1" sel="8" val="4"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$A$3" fmlaRange="$W$1:$W$12" noThreeD="1" sel="8" val="4"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$A$4" fmlaRange="$F$1:$F$31" noThreeD="1" sel="21" val="19"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$A$4" fmlaRange="$V$1:$V$31" noThreeD="1" sel="28" val="23"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$A$9" fmlaRange="$H$1:$H$16" noThreeD="1" sel="2" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$A$9" fmlaRange="$U$1:$U$16" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -954,11 +981,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,155 +1001,162 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="23">
-        <f>SUM(C10:C500)</f>
+      <c r="B2" s="21">
+        <f>SUM(C7:C499)</f>
         <v>103000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="23">
-        <f>SUM(B9:B500)</f>
+      <c r="B3" s="21">
+        <f>SUM(B7:B499)</f>
         <v>177000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="23">
-        <f>SUM(D8:D500)</f>
-        <v>56000</v>
+      <c r="B4" s="21">
+        <f>SUM(D7:D499)</f>
+        <v>58000</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="24">
+      <c r="A5" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="22">
         <f>B2-B4</f>
-        <v>47000</v>
+        <v>45000</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="19">
+        <v>15</v>
+      </c>
+      <c r="D5" s="21">
         <f>B5/7000</f>
-        <v>6.7142857142857144</v>
+        <v>6.4285714285714288</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="3"/>
+      <c r="A9" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B9" s="4">
+        <v>7000</v>
+      </c>
+      <c r="D9" s="4">
+        <v>7000</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>44061</v>
+        <v>44060</v>
       </c>
       <c r="B10" s="4">
         <v>7000</v>
       </c>
       <c r="D10" s="4">
-        <v>7000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>44060</v>
+        <v>44059</v>
       </c>
       <c r="B11" s="4">
         <v>7000</v>
       </c>
       <c r="D11" s="4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>44059</v>
-      </c>
-      <c r="B12" s="4">
+        <v>44058</v>
+      </c>
+      <c r="C12" s="4">
         <v>7000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>44058</v>
-      </c>
-      <c r="C13" s="4">
+        <v>44057</v>
+      </c>
+      <c r="B13" s="4">
         <v>7000</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>44057</v>
-      </c>
-      <c r="B14" s="4">
+        <v>44056</v>
+      </c>
+      <c r="C14" s="4">
         <v>7000</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>44056</v>
-      </c>
-      <c r="C15" s="4">
-        <v>7000</v>
+        <v>44055</v>
+      </c>
+      <c r="B15" s="4">
+        <v>7000</v>
+      </c>
+      <c r="D15" s="4">
+        <v>14000</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>44055</v>
-      </c>
-      <c r="B16" s="4">
-        <v>7000</v>
-      </c>
-      <c r="D16" s="4">
-        <v>14000</v>
+        <v>44054</v>
+      </c>
+      <c r="C16" s="4">
+        <v>7000</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>44054</v>
-      </c>
-      <c r="C17" s="4">
+        <v>44053</v>
+      </c>
+      <c r="B17" s="4">
         <v>7000</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>44053</v>
+        <v>44052</v>
       </c>
       <c r="B18" s="4">
         <v>7000</v>
@@ -1130,7 +1164,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>44052</v>
+        <v>44051</v>
       </c>
       <c r="B19" s="4">
         <v>7000</v>
@@ -1138,7 +1172,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>44051</v>
+        <v>44050</v>
       </c>
       <c r="B20" s="4">
         <v>7000</v>
@@ -1146,7 +1180,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>44050</v>
+        <v>44049</v>
       </c>
       <c r="B21" s="4">
         <v>7000</v>
@@ -1154,248 +1188,241 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>44049</v>
+        <v>44048</v>
       </c>
       <c r="B22" s="4">
         <v>7000</v>
+      </c>
+      <c r="D22" s="4">
+        <v>14000</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>44048</v>
-      </c>
-      <c r="B23" s="4">
-        <v>7000</v>
-      </c>
-      <c r="D23" s="4">
-        <v>14000</v>
+        <v>44047</v>
+      </c>
+      <c r="C23" s="4">
+        <v>7000</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>44047</v>
-      </c>
-      <c r="C24" s="4">
+        <v>44046</v>
+      </c>
+      <c r="B24" s="4">
         <v>7000</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>44046</v>
-      </c>
-      <c r="B25" s="4">
+        <v>44045</v>
+      </c>
+      <c r="C25" s="4">
         <v>7000</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>44045</v>
-      </c>
-      <c r="C26" s="4">
+        <v>44044</v>
+      </c>
+      <c r="B26" s="4">
+        <v>7000</v>
+      </c>
+      <c r="D26" s="4">
         <v>7000</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>44044</v>
-      </c>
-      <c r="B27" s="4">
-        <v>7000</v>
-      </c>
-      <c r="D27" s="4">
+        <v>44043</v>
+      </c>
+      <c r="C27" s="4">
         <v>7000</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>44043</v>
-      </c>
-      <c r="C28" s="4">
+        <v>44042</v>
+      </c>
+      <c r="B28" s="4">
         <v>7000</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>44042</v>
-      </c>
-      <c r="B29" s="4">
+        <v>44041</v>
+      </c>
+      <c r="C29" s="4">
         <v>7000</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>44041</v>
+        <v>44040</v>
+      </c>
+      <c r="B30" s="4">
+        <v>4000</v>
       </c>
       <c r="C30" s="4">
-        <v>7000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>44040</v>
-      </c>
-      <c r="B31" s="4">
-        <v>4000</v>
+        <v>44039</v>
       </c>
       <c r="C31" s="4">
-        <v>3000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>44039</v>
-      </c>
-      <c r="C32" s="4">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44038</v>
+      </c>
+      <c r="B32" s="4">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>44038</v>
-      </c>
-      <c r="B33" s="4">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44037</v>
+      </c>
+      <c r="C33" s="4">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>44037</v>
-      </c>
-      <c r="C34" s="4">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44036</v>
+      </c>
+      <c r="B34" s="4">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>44036</v>
+        <v>44035</v>
       </c>
       <c r="B35" s="4">
         <v>7000</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>44035</v>
-      </c>
-      <c r="B36" s="4">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44034</v>
+      </c>
+      <c r="C36" s="4">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>44034</v>
-      </c>
-      <c r="C37" s="4">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44033</v>
+      </c>
+      <c r="B37" s="4">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>44033</v>
+        <v>44032</v>
       </c>
       <c r="B38" s="4">
         <v>7000</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>44032</v>
+        <v>44031</v>
       </c>
       <c r="B39" s="4">
         <v>7000</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>44031</v>
-      </c>
-      <c r="B40" s="4">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44030</v>
+      </c>
+      <c r="C40" s="4">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>44030</v>
+        <v>44029</v>
       </c>
       <c r="C41" s="4">
         <v>7000</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>44029</v>
-      </c>
-      <c r="C42" s="4">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44028</v>
+      </c>
+      <c r="B42" s="4">
+        <v>7000</v>
+      </c>
+      <c r="D42" s="4">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>44028</v>
+        <v>44027</v>
       </c>
       <c r="B43" s="4">
-        <v>7000</v>
-      </c>
-      <c r="D43" s="4">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+      <c r="C43" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B44" s="4">
-        <v>5000</v>
-      </c>
-      <c r="C44" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>44026</v>
+        <v>44025</v>
       </c>
       <c r="B45" s="4">
         <v>7000</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>44025</v>
-      </c>
-      <c r="B46" s="4">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44024</v>
+      </c>
+      <c r="C46" s="4">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>44024</v>
+        <v>44023</v>
       </c>
       <c r="C47" s="4">
         <v>7000</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>44023</v>
-      </c>
-      <c r="C48" s="4">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>44022</v>
       </c>
-      <c r="B49" s="4">
-        <v>7000</v>
-      </c>
-      <c r="E49" t="s">
-        <v>49</v>
+      <c r="B48" s="4">
+        <v>7000</v>
+      </c>
+      <c r="E48" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:A60">
+  <sheetProtection insertRows="0"/>
+  <autoFilter ref="A7:A59">
     <sortState ref="A9:E59">
       <sortCondition descending="1" ref="A8:A59"/>
     </sortState>
@@ -1408,11 +1435,11 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja10"/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,15 +1449,15 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="28">
-        <f>SUM(C8:C502)</f>
+      <c r="B2" s="26">
+        <f>SUM(C7:C501)</f>
         <v>340000</v>
       </c>
     </row>
@@ -1438,8 +1465,8 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28">
-        <f>SUM(B8:B502)</f>
+      <c r="B3" s="26">
+        <f>SUM(B7:B501)</f>
         <v>0</v>
       </c>
     </row>
@@ -1447,68 +1474,68 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="28">
-        <f>SUM(D11:D502)</f>
+      <c r="B4" s="26">
+        <f>SUM(D10:D501)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="8">
         <f>B2-B4</f>
         <v>340000</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4">
         <f>B5/7000</f>
         <v>48.571428571428569</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>50</v>
-      </c>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="A9" s="2">
+        <v>44061</v>
+      </c>
+      <c r="C9" s="4">
+        <v>340000</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>44061</v>
-      </c>
-      <c r="C10" s="4">
-        <v>340000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:A11">
+  <autoFilter ref="A7:A10">
     <sortState ref="A9:E10">
       <sortCondition descending="1" ref="A8:A10"/>
     </sortState>
@@ -1520,11 +1547,11 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja11"/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,15 +1561,15 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="28">
-        <f>SUM(C8:C501)</f>
+      <c r="B2" s="26">
+        <f>SUM(C7:C500)</f>
         <v>136000</v>
       </c>
     </row>
@@ -1550,8 +1577,8 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28">
-        <f>SUM(B8:B501)</f>
+      <c r="B3" s="26">
+        <f>SUM(B7:B500)</f>
         <v>0</v>
       </c>
     </row>
@@ -1559,61 +1586,61 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="28">
-        <f>SUM(D8:D501)</f>
+      <c r="B4" s="26">
+        <f>SUM(D7:D500)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="8">
         <f>B2-B4</f>
         <v>136000</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4">
         <f>B5/7000</f>
         <v>19.428571428571427</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>50</v>
-      </c>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A9" s="2">
         <v>44061</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C9" s="4">
         <v>136000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:A10">
+  <autoFilter ref="A7:A9">
     <sortState ref="A9:E9">
       <sortCondition descending="1" ref="A8:A9"/>
     </sortState>
@@ -1625,11 +1652,11 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja12"/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1639,15 +1666,15 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="28">
-        <f>SUM(C8:C501)</f>
+      <c r="B2" s="26">
+        <f>SUM(C7:C500)</f>
         <v>85000</v>
       </c>
     </row>
@@ -1655,8 +1682,8 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28">
-        <f>SUM(B8:B501)</f>
+      <c r="B3" s="26">
+        <f>SUM(B7:B500)</f>
         <v>0</v>
       </c>
     </row>
@@ -1664,61 +1691,61 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="28">
-        <f>SUM(D8:D501)</f>
+      <c r="B4" s="26">
+        <f>SUM(D7:D500)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="8">
         <f>B2-B4</f>
         <v>85000</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4">
         <f>B5/7000</f>
         <v>12.142857142857142</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>50</v>
-      </c>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A9" s="2">
         <v>44030</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C9" s="4">
         <v>85000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:A10">
+  <autoFilter ref="A7:A9">
     <sortState ref="A9:E9">
       <sortCondition descending="1" ref="A8:A9"/>
     </sortState>
@@ -1733,8 +1760,8 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1744,15 +1771,15 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="28">
-        <f>SUM(C8:C500)</f>
+      <c r="B2" s="26">
+        <f>SUM(C7:C499)</f>
         <v>0</v>
       </c>
     </row>
@@ -1760,8 +1787,8 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28">
-        <f>SUM(B8:B500)</f>
+      <c r="B3" s="26">
+        <f>SUM(B7:B499)</f>
         <v>0</v>
       </c>
     </row>
@@ -1769,46 +1796,53 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="28">
-        <f>SUM(D8:D500)</f>
+      <c r="B4" s="26">
+        <f>SUM(D7:D499)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="8">
         <f>B2-B4</f>
         <v>0</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4">
         <f>B5/7000</f>
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>50</v>
-      </c>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:A9">
+  <autoFilter ref="A7:A8">
     <sortState ref="A9:E9">
       <sortCondition descending="1" ref="A8:A9"/>
     </sortState>
@@ -1820,11 +1854,11 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja14"/>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1834,15 +1868,15 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="28">
-        <f>SUM(C8:C499)</f>
+      <c r="B2" s="26">
+        <f>SUM(C7:C498)</f>
         <v>548000</v>
       </c>
     </row>
@@ -1850,8 +1884,8 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28">
-        <f>SUM(B8:B499)</f>
+      <c r="B3" s="26">
+        <f>SUM(B7:B498)</f>
         <v>0</v>
       </c>
     </row>
@@ -1859,58 +1893,70 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="28">
-        <f>SUM(D8:D499)</f>
+      <c r="B4" s="26">
+        <f>SUM(D7:D498)</f>
         <v>240000</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="8">
         <f>B2-B4</f>
         <v>308000</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4">
         <f>B5/7000</f>
         <v>44</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>50</v>
-      </c>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2">
+        <v>44061</v>
+      </c>
+      <c r="D9" s="4">
+        <v>25000</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>44061</v>
-      </c>
-      <c r="D10" s="4">
-        <v>25000</v>
+        <v>44060</v>
+      </c>
+      <c r="C10" s="4">
+        <v>7000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>44060</v>
+        <v>44059</v>
       </c>
       <c r="C11" s="4">
         <v>7000</v>
@@ -1918,23 +1964,23 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>44059</v>
-      </c>
-      <c r="C12" s="4">
-        <v>7000</v>
+        <v>44058</v>
+      </c>
+      <c r="D12" s="4">
+        <v>25000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>44058</v>
-      </c>
-      <c r="D13" s="4">
-        <v>25000</v>
+        <v>44057</v>
+      </c>
+      <c r="C13" s="4">
+        <v>7000</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>44057</v>
+        <v>44056</v>
       </c>
       <c r="C14" s="4">
         <v>7000</v>
@@ -1942,7 +1988,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>44056</v>
+        <v>44055</v>
       </c>
       <c r="C15" s="4">
         <v>7000</v>
@@ -1950,7 +1996,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>44055</v>
+        <v>44054</v>
       </c>
       <c r="C16" s="4">
         <v>7000</v>
@@ -1958,7 +2004,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>44054</v>
+        <v>44053</v>
       </c>
       <c r="C17" s="4">
         <v>7000</v>
@@ -1966,7 +2012,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>44053</v>
+        <v>44052</v>
       </c>
       <c r="C18" s="4">
         <v>7000</v>
@@ -1974,7 +2020,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>44052</v>
+        <v>44051</v>
       </c>
       <c r="C19" s="4">
         <v>7000</v>
@@ -1982,7 +2028,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>44051</v>
+        <v>44050</v>
       </c>
       <c r="C20" s="4">
         <v>7000</v>
@@ -1990,7 +2036,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>44050</v>
+        <v>44049</v>
       </c>
       <c r="C21" s="4">
         <v>7000</v>
@@ -1998,7 +2044,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>44049</v>
+        <v>44048</v>
       </c>
       <c r="C22" s="4">
         <v>7000</v>
@@ -2006,7 +2052,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>44048</v>
+        <v>44047</v>
       </c>
       <c r="C23" s="4">
         <v>7000</v>
@@ -2014,7 +2060,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>44047</v>
+        <v>44046</v>
       </c>
       <c r="C24" s="4">
         <v>7000</v>
@@ -2022,7 +2068,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>44046</v>
+        <v>44045</v>
       </c>
       <c r="C25" s="4">
         <v>7000</v>
@@ -2030,23 +2076,23 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>44045</v>
-      </c>
-      <c r="C26" s="4">
-        <v>7000</v>
+        <v>44044</v>
+      </c>
+      <c r="D26" s="4">
+        <v>60000</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>44044</v>
-      </c>
-      <c r="D27" s="4">
-        <v>60000</v>
+        <v>44043</v>
+      </c>
+      <c r="C27" s="4">
+        <v>7000</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>44043</v>
+        <v>44042</v>
       </c>
       <c r="C28" s="4">
         <v>7000</v>
@@ -2054,7 +2100,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>44042</v>
+        <v>44041</v>
       </c>
       <c r="C29" s="4">
         <v>7000</v>
@@ -2062,7 +2108,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>44041</v>
+        <v>44040</v>
       </c>
       <c r="C30" s="4">
         <v>7000</v>
@@ -2070,7 +2116,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>44040</v>
+        <v>44039</v>
       </c>
       <c r="C31" s="4">
         <v>7000</v>
@@ -2078,7 +2124,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>44039</v>
+        <v>44038</v>
       </c>
       <c r="C32" s="4">
         <v>7000</v>
@@ -2086,23 +2132,23 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>44038</v>
-      </c>
-      <c r="C33" s="4">
-        <v>7000</v>
+        <v>44037</v>
+      </c>
+      <c r="D33" s="4">
+        <v>40000</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>44037</v>
-      </c>
-      <c r="D34" s="4">
-        <v>40000</v>
+        <v>44036</v>
+      </c>
+      <c r="C34" s="4">
+        <v>7000</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>44036</v>
+        <v>44035</v>
       </c>
       <c r="C35" s="4">
         <v>7000</v>
@@ -2110,7 +2156,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>44035</v>
+        <v>44034</v>
       </c>
       <c r="C36" s="4">
         <v>7000</v>
@@ -2118,7 +2164,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>44034</v>
+        <v>44033</v>
       </c>
       <c r="C37" s="4">
         <v>7000</v>
@@ -2126,7 +2172,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>44033</v>
+        <v>44032</v>
       </c>
       <c r="C38" s="4">
         <v>7000</v>
@@ -2134,7 +2180,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>44032</v>
+        <v>44031</v>
       </c>
       <c r="C39" s="4">
         <v>7000</v>
@@ -2142,23 +2188,23 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>44031</v>
-      </c>
-      <c r="C40" s="4">
-        <v>7000</v>
+        <v>44030</v>
+      </c>
+      <c r="D40" s="4">
+        <v>50000</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>44030</v>
-      </c>
-      <c r="D41" s="4">
-        <v>50000</v>
+        <v>44029</v>
+      </c>
+      <c r="C41" s="4">
+        <v>7000</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>44029</v>
+        <v>44028</v>
       </c>
       <c r="C42" s="4">
         <v>7000</v>
@@ -2166,7 +2212,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>44028</v>
+        <v>44027</v>
       </c>
       <c r="C43" s="4">
         <v>7000</v>
@@ -2174,7 +2220,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="C44" s="4">
         <v>7000</v>
@@ -2182,7 +2228,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>44026</v>
+        <v>44025</v>
       </c>
       <c r="C45" s="4">
         <v>7000</v>
@@ -2190,7 +2236,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>44025</v>
+        <v>44024</v>
       </c>
       <c r="C46" s="4">
         <v>7000</v>
@@ -2198,23 +2244,23 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>44024</v>
-      </c>
-      <c r="C47" s="4">
-        <v>7000</v>
+        <v>44023</v>
+      </c>
+      <c r="D47" s="4">
+        <v>40000</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>44023</v>
-      </c>
-      <c r="D48" s="4">
-        <v>40000</v>
+        <v>44022</v>
+      </c>
+      <c r="C48" s="4">
+        <v>7000</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>44022</v>
+        <v>44021</v>
       </c>
       <c r="C49" s="4">
         <v>7000</v>
@@ -2222,22 +2268,14 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>44021</v>
+        <v>44020</v>
       </c>
       <c r="C50" s="4">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>44020</v>
-      </c>
-      <c r="C51" s="4">
         <v>303000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:A51">
+  <autoFilter ref="A7:A50">
     <sortState ref="A9:E52">
       <sortCondition descending="1" ref="A8:A52"/>
     </sortState>
@@ -2252,8 +2290,8 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2263,15 +2301,15 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
-        <f>SUM(C8:C500)</f>
+      <c r="B2" s="26">
+        <f>SUM(C7:C497)</f>
         <v>0</v>
       </c>
     </row>
@@ -2279,8 +2317,8 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
-        <f>SUM(B8:B500)</f>
+      <c r="B3" s="26">
+        <f>SUM(B7:B497)</f>
         <v>0</v>
       </c>
     </row>
@@ -2288,46 +2326,53 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
-        <f>SUM(D8:D500)</f>
+      <c r="B4" s="26">
+        <f>SUM(D7:D497)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
         <f>B2-B4</f>
         <v>0</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4">
         <f>B5/7000</f>
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:A12"/>
+  <autoFilter ref="A7:A9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -2336,25 +2381,29 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja17"/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="11.42578125" style="3"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <f>SUM(D9:D60)</f>
+      <c r="B2" s="28">
+        <f>SUM(C7:C509)</f>
         <v>0</v>
       </c>
     </row>
@@ -2362,8 +2411,8 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <f>SUM(C1:C60)</f>
+      <c r="B3" s="28">
+        <f>SUM(B7:B509)</f>
         <v>0</v>
       </c>
     </row>
@@ -2371,65 +2420,137 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
-        <f>SUM(E1:E60)</f>
+      <c r="B4" s="28">
+        <f>SUM(D7:D509)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="29">
         <f>B2-B4</f>
         <v>0</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7">
         <f>B5/7000</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <f>SUM(B2:B4)</f>
-        <v>0</v>
-      </c>
+      <c r="A6" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
+      <c r="A7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>50</v>
-      </c>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:A9"/>
+  <autoFilter ref="A7:A19">
+    <sortState ref="A8:E9">
+      <sortCondition descending="1" ref="A7:A9"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="1">
-    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2438,10 +2559,10 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja15"/>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B13" sqref="B13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2451,311 +2572,371 @@
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="10">
         <f ca="1">TODAY()</f>
         <v>44065</v>
       </c>
-      <c r="F1">
+      <c r="G1" s="15"/>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1">
         <v>1</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="W1" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
-      <c r="F2">
+      <c r="G2" s="15"/>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V2">
         <v>2</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="W2" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>8</v>
       </c>
       <c r="B3" s="11"/>
-      <c r="F3">
+      <c r="G3" s="15"/>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V3">
         <v>3</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="W3" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>28</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="G4" s="15"/>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" t="s">
+        <v>12</v>
+      </c>
+      <c r="V4">
+        <v>4</v>
+      </c>
+      <c r="W4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
-        <v>21</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4" s="15" t="s">
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B5" s="11"/>
+      <c r="G5" s="15"/>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="U5" t="s">
+        <v>13</v>
+      </c>
+      <c r="V5">
+        <v>5</v>
+      </c>
+      <c r="W5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="11"/>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5" s="15" t="s">
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G6" s="15"/>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="U6" t="s">
+        <v>14</v>
+      </c>
+      <c r="V6">
+        <v>6</v>
+      </c>
+      <c r="W6" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F6">
-        <v>6</v>
-      </c>
-      <c r="G6" s="15" t="s">
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G7" s="15"/>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V7">
+        <v>7</v>
+      </c>
+      <c r="W7" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F7">
-        <v>7</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" t="str">
         <f>carlos!A3</f>
         <v>pagado</v>
       </c>
-      <c r="F8">
+      <c r="G8" s="15"/>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="U8" t="s">
+        <v>20</v>
+      </c>
+      <c r="V8">
         <v>8</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="W8" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>1</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="U9" t="s">
+        <v>21</v>
+      </c>
+      <c r="V9">
+        <v>9</v>
+      </c>
+      <c r="W9" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>9</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="5">
         <f>IF(A9=1,carlos!B5,IF(A9=2,ANTONIO!B5,IF(A9=3,JAVIER!B5,IF(A9=4,WILMER!B5,IF(A9=5,DAISON!B5,IF(A9=6,JEFFERSON!B5,IF(A9=7,ANDRES!B5,IF(A9=8,BLANCA!B5,IF(A9=9,ALBEIRO!B5,IF(A9=10,JESUS!B5,IF(A9=11,CESAR!B5,IF(A9=12,JHONFREDY!B5,IF(A9=13,ENRIQUE!B5,IF(A9=14,ALEXANDER!B5,IF(A9=15,ZARCO!B5,IF(A9=16,ROSIRI!B5,"nokas"))))))))))))))))</f>
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="4">
         <f>C10/7000</f>
-        <v>6</v>
-      </c>
-      <c r="F10">
+        <v>6.4285714285714288</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+      <c r="U10" t="s">
+        <v>22</v>
+      </c>
+      <c r="V10">
         <v>10</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="W10" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G11" s="15"/>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+      <c r="U11" t="s">
+        <v>43</v>
+      </c>
+      <c r="V11">
+        <v>11</v>
+      </c>
+      <c r="W11" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11">
-        <v>11</v>
-      </c>
-      <c r="G11" s="15" t="s">
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" t="s">
+        <v>44</v>
+      </c>
+      <c r="U12" t="s">
+        <v>44</v>
+      </c>
+      <c r="V12">
+        <v>12</v>
+      </c>
+      <c r="W12" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12">
-        <v>12</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="str">
         <f>CONCATENATE(A4,"/",A3,"/",2020)</f>
-        <v>21/8/2020</v>
+        <v>28/8/2020</v>
       </c>
       <c r="C13">
         <v>15000</v>
       </c>
       <c r="E13">
-        <v>5000</v>
-      </c>
-      <c r="F13">
-        <v>13</v>
+        <v>2000</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14">
-        <v>14</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="U13" t="s">
+        <v>24</v>
+      </c>
+      <c r="V13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G14" s="14"/>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15">
-        <v>15</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="U14" t="s">
+        <v>25</v>
+      </c>
+      <c r="V14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G15" s="14"/>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16">
-        <v>16</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="U15" t="s">
+        <v>26</v>
+      </c>
+      <c r="V15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G16" s="14"/>
       <c r="H16" t="s">
+        <v>27</v>
+      </c>
+      <c r="U16" t="s">
+        <v>27</v>
+      </c>
+      <c r="V16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G17" s="14"/>
+      <c r="V17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G18" s="14"/>
+      <c r="V18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G19" s="14"/>
+      <c r="V19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G20" s="14"/>
+      <c r="V20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="V21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="V22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="V23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="V24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="V25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="V26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="V27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="V28">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F17">
-        <v>17</v>
-      </c>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F18">
-        <v>18</v>
-      </c>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F19">
-        <v>19</v>
-      </c>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F20">
-        <v>20</v>
-      </c>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F21">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F22">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F23">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F24">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F25">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F26">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F27">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F28">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F29">
+    <row r="29" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="V29">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F30">
+    <row r="30" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="V30">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F31">
+    <row r="31" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="V31">
         <v>31</v>
       </c>
     </row>
@@ -2894,16 +3075,16 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1">
         <f>JAVIER!B5+ANTONIO!B5+carlos!B5+WILMER!B5+DAISON!B5+JEFFERSON!B5+ANDRES!B5+BLANCA!B5+ALBEIRO!B5+JESUS!B5+CESAR!B5+JHONFREDY!B5+ENRIQUE!B5+ALEXANDER!B5+ZARCO!B5+ROSIRI!B5</f>
-        <v>1724000</v>
+        <v>1704000</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2914,11 +3095,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2929,24 +3110,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="26">
-        <f>SUM(C8:C502)</f>
-        <v>94000</v>
+      <c r="B2" s="24">
+        <f>SUM(C7:C501)</f>
+        <v>91000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="26">
-        <f>SUM(B8:B502)</f>
+      <c r="B3" s="24">
+        <f>SUM(B7:B501)</f>
         <v>130000</v>
       </c>
     </row>
@@ -2954,110 +3135,125 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="26">
-        <f>SUM(D8:D502)</f>
-        <v>52000</v>
+      <c r="B4" s="24">
+        <f>SUM(D7:D501)</f>
+        <v>67000</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="25">
+      <c r="A5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="23">
         <f>B2-B4</f>
-        <v>42000</v>
+        <v>24000</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="5">
         <f>B5/7000</f>
-        <v>6</v>
+        <v>3.4285714285714284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>50</v>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B9" s="4">
+        <v>5000</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>44061</v>
+        <v>44060</v>
       </c>
       <c r="B10" s="4">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="C10" s="4">
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>44060</v>
+        <v>44059</v>
       </c>
       <c r="B11" s="4">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="C11" s="4">
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>44059</v>
+        <v>44058</v>
       </c>
       <c r="B12" s="4">
-        <v>5000</v>
-      </c>
-      <c r="C12" s="4">
-        <v>2000</v>
+        <v>4000</v>
+      </c>
+      <c r="D12" s="4">
+        <v>15000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>44058</v>
+        <v>44057</v>
       </c>
       <c r="B13" s="4">
-        <v>4000</v>
-      </c>
-      <c r="C13" s="4">
+        <v>7000</v>
+      </c>
+      <c r="D13" s="4">
         <v>3000</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>44057</v>
+        <v>44056</v>
       </c>
       <c r="B14" s="4">
         <v>7000</v>
-      </c>
-      <c r="D14" s="4">
-        <v>3000</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>44056</v>
-      </c>
-      <c r="B15" s="4">
+        <v>44055</v>
+      </c>
+      <c r="C15" s="4">
         <v>7000</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>44055</v>
+        <v>44054</v>
       </c>
       <c r="C16" s="4">
         <v>7000</v>
@@ -3065,26 +3261,26 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>44054</v>
-      </c>
-      <c r="C17" s="4">
+        <v>44053</v>
+      </c>
+      <c r="B17" s="4">
+        <v>7000</v>
+      </c>
+      <c r="D17" s="4">
         <v>7000</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>44053</v>
-      </c>
-      <c r="B18" s="4">
-        <v>7000</v>
-      </c>
-      <c r="D18" s="4">
+        <v>44052</v>
+      </c>
+      <c r="C18" s="4">
         <v>7000</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>44052</v>
+        <v>44051</v>
       </c>
       <c r="C19" s="4">
         <v>7000</v>
@@ -3092,39 +3288,39 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>44051</v>
-      </c>
-      <c r="C20" s="4">
+        <v>44050</v>
+      </c>
+      <c r="B20" s="4">
         <v>7000</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>44050</v>
-      </c>
-      <c r="B21" s="4">
+        <v>44049</v>
+      </c>
+      <c r="C21" s="4">
         <v>7000</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>44049</v>
-      </c>
-      <c r="C22" s="4">
+        <v>44048</v>
+      </c>
+      <c r="B22" s="4">
         <v>7000</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>44048</v>
-      </c>
-      <c r="B23" s="4">
+        <v>44047</v>
+      </c>
+      <c r="C23" s="4">
         <v>7000</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>44047</v>
+        <v>44046</v>
       </c>
       <c r="C24" s="4">
         <v>7000</v>
@@ -3132,7 +3328,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>44046</v>
+        <v>44045</v>
       </c>
       <c r="C25" s="4">
         <v>7000</v>
@@ -3140,7 +3336,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>44045</v>
+        <v>44044</v>
       </c>
       <c r="C26" s="4">
         <v>7000</v>
@@ -3148,7 +3344,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>44044</v>
+        <v>44043</v>
       </c>
       <c r="C27" s="4">
         <v>7000</v>
@@ -3156,7 +3352,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>44043</v>
+        <v>44042</v>
       </c>
       <c r="C28" s="4">
         <v>7000</v>
@@ -3164,7 +3360,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>44042</v>
+        <v>44041</v>
       </c>
       <c r="C29" s="4">
         <v>7000</v>
@@ -3172,56 +3368,56 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>44041</v>
-      </c>
-      <c r="C30" s="4">
-        <v>7000</v>
+        <v>44040</v>
+      </c>
+      <c r="B30" s="4">
+        <v>7000</v>
+      </c>
+      <c r="E30" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>44040</v>
+        <v>44039</v>
       </c>
       <c r="B31" s="4">
         <v>7000</v>
       </c>
-      <c r="E31" t="s">
-        <v>7</v>
+      <c r="D31" s="4">
+        <v>35000</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>44039</v>
+        <v>44038</v>
       </c>
       <c r="B32" s="4">
         <v>7000</v>
-      </c>
-      <c r="D32" s="4">
-        <v>35000</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>44038</v>
+        <v>44037</v>
       </c>
       <c r="B33" s="4">
+        <v>7000</v>
+      </c>
+      <c r="D33" s="4">
         <v>7000</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>44037</v>
+        <v>44036</v>
       </c>
       <c r="B34" s="4">
-        <v>7000</v>
-      </c>
-      <c r="D34" s="4">
         <v>7000</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>44036</v>
+        <v>44035</v>
       </c>
       <c r="B35" s="4">
         <v>7000</v>
@@ -3229,7 +3425,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>44035</v>
+        <v>44034</v>
       </c>
       <c r="B36" s="4">
         <v>7000</v>
@@ -3237,7 +3433,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>44034</v>
+        <v>44033</v>
       </c>
       <c r="B37" s="4">
         <v>7000</v>
@@ -3245,7 +3441,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>44033</v>
+        <v>44032</v>
       </c>
       <c r="B38" s="4">
         <v>7000</v>
@@ -3253,7 +3449,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>44032</v>
+        <v>44031</v>
       </c>
       <c r="B39" s="4">
         <v>7000</v>
@@ -3261,22 +3457,14 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>44031</v>
+        <v>44030</v>
       </c>
       <c r="B40" s="4">
         <v>7000</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>44030</v>
-      </c>
-      <c r="B41" s="4">
-        <v>7000</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A8:A44">
+  <autoFilter ref="A7:A43">
     <sortState ref="A9:E44">
       <sortCondition descending="1" ref="A8:A44"/>
     </sortState>
@@ -3288,11 +3476,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3303,15 +3491,15 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="26">
-        <f>SUM(C8:C500)</f>
+      <c r="B2" s="24">
+        <f>SUM(C7:C499)</f>
         <v>70000</v>
       </c>
     </row>
@@ -3319,8 +3507,8 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="26">
-        <f>SUM(B8:B500)</f>
+      <c r="B3" s="24">
+        <f>SUM(B7:B499)</f>
         <v>196000</v>
       </c>
     </row>
@@ -3328,47 +3516,62 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="26">
-        <f>SUM(D8:D500)</f>
+      <c r="B4" s="24">
+        <f>SUM(D7:D499)</f>
         <v>21000</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="25">
+        <v>4</v>
+      </c>
+      <c r="B5" s="23">
         <f>B2-B4</f>
         <v>49000</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="5">
         <f>B5/7000</f>
         <v>7</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>50</v>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B9" s="4">
+        <v>7000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="B10" s="4">
         <v>7000</v>
@@ -3376,214 +3579,214 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>44061</v>
-      </c>
-      <c r="B11" s="4">
+        <v>44060</v>
+      </c>
+      <c r="C11" s="4">
         <v>7000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>44060</v>
-      </c>
-      <c r="C12" s="4">
+        <v>44059</v>
+      </c>
+      <c r="B12" s="4">
         <v>7000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>44059</v>
+        <v>44058</v>
       </c>
       <c r="B13" s="4">
+        <v>7000</v>
+      </c>
+      <c r="D13" s="4">
         <v>7000</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>44058</v>
+        <v>44057</v>
       </c>
       <c r="B14" s="4">
-        <v>7000</v>
-      </c>
-      <c r="D14" s="4">
         <v>7000</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>44057</v>
-      </c>
-      <c r="B15" s="4">
+        <v>44056</v>
+      </c>
+      <c r="C15" s="4">
         <v>7000</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>44056</v>
+        <v>44055</v>
       </c>
       <c r="C16" s="4">
         <v>7000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>44055</v>
+        <v>44054</v>
       </c>
       <c r="C17" s="4">
         <v>7000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>44054</v>
-      </c>
-      <c r="C18" s="4">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44053</v>
+      </c>
+      <c r="B18" s="4">
+        <v>7000</v>
+      </c>
+      <c r="D18" s="4">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>44053</v>
-      </c>
-      <c r="B19" s="4">
-        <v>7000</v>
-      </c>
-      <c r="D19" s="4">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44052</v>
+      </c>
+      <c r="C19" s="4">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>44052</v>
-      </c>
-      <c r="C20" s="4">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44051</v>
+      </c>
+      <c r="B20" s="4">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>44051</v>
+        <v>44050</v>
       </c>
       <c r="B21" s="4">
         <v>7000</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="4">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>44050</v>
-      </c>
-      <c r="B22" s="4">
-        <v>7000</v>
-      </c>
-      <c r="D22" s="4">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44049</v>
+      </c>
+      <c r="C22" s="4">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>44049</v>
-      </c>
-      <c r="C23" s="4">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44048</v>
+      </c>
+      <c r="B23" s="4">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>44048</v>
+        <v>44047</v>
       </c>
       <c r="B24" s="4">
         <v>7000</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>44047</v>
-      </c>
-      <c r="B25" s="4">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44046</v>
+      </c>
+      <c r="C25" s="4">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>44046</v>
+        <v>44045</v>
       </c>
       <c r="C26" s="4">
         <v>7000</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>44045</v>
+        <v>44044</v>
       </c>
       <c r="C27" s="4">
         <v>7000</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>44044</v>
+        <v>44043</v>
       </c>
       <c r="C28" s="4">
         <v>7000</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>44043</v>
-      </c>
-      <c r="C29" s="4">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44042</v>
+      </c>
+      <c r="B29" s="4">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>44042</v>
+        <v>44041</v>
       </c>
       <c r="B30" s="4">
         <v>7000</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>44041</v>
+        <v>44040</v>
       </c>
       <c r="B31" s="4">
         <v>7000</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>44040</v>
+        <v>44039</v>
       </c>
       <c r="B32" s="4">
         <v>7000</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>44039</v>
+        <v>44038</v>
       </c>
       <c r="B33" s="4">
         <v>7000</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>44038</v>
+        <v>44037</v>
       </c>
       <c r="B34" s="4">
         <v>7000</v>
-      </c>
-      <c r="E34" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>44037</v>
+        <v>44036</v>
       </c>
       <c r="B35" s="4">
         <v>7000</v>
@@ -3591,7 +3794,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>44036</v>
+        <v>44035</v>
       </c>
       <c r="B36" s="4">
         <v>7000</v>
@@ -3599,7 +3802,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>44035</v>
+        <v>44034</v>
       </c>
       <c r="B37" s="4">
         <v>7000</v>
@@ -3607,7 +3810,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>44034</v>
+        <v>44033</v>
       </c>
       <c r="B38" s="4">
         <v>7000</v>
@@ -3615,7 +3818,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>44033</v>
+        <v>44032</v>
       </c>
       <c r="B39" s="4">
         <v>7000</v>
@@ -3623,7 +3826,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>44032</v>
+        <v>44031</v>
       </c>
       <c r="B40" s="4">
         <v>7000</v>
@@ -3631,7 +3834,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>44031</v>
+        <v>44030</v>
       </c>
       <c r="B41" s="4">
         <v>7000</v>
@@ -3639,7 +3842,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>44030</v>
+        <v>44029</v>
       </c>
       <c r="B42" s="4">
         <v>7000</v>
@@ -3647,26 +3850,26 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>44029</v>
+        <v>44028</v>
       </c>
       <c r="B43" s="4">
         <v>7000</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>44028</v>
+        <v>44027</v>
       </c>
       <c r="B44" s="4">
         <v>7000</v>
-      </c>
-      <c r="E44" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B45" s="4">
         <v>7000</v>
@@ -3674,22 +3877,14 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>44026</v>
+        <v>44025</v>
       </c>
       <c r="B46" s="4">
         <v>7000</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>44025</v>
-      </c>
-      <c r="B47" s="4">
-        <v>7000</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A8:A47">
+  <autoFilter ref="A7:A46">
     <sortState ref="A9:E46">
       <sortCondition descending="1" ref="A8:A46"/>
     </sortState>
@@ -3701,11 +3896,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3715,15 +3910,15 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="28">
-        <f>SUM(C10:C51)</f>
+      <c r="B2" s="26">
+        <f>SUM(C7:C500)</f>
         <v>129000</v>
       </c>
     </row>
@@ -3731,67 +3926,82 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28">
-        <f>SUM(B10:B50)</f>
-        <v>158000</v>
+      <c r="B3" s="26">
+        <f>SUM(B7:B500)</f>
+        <v>165000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="28">
-        <f>SUM(D10:D50)</f>
+      <c r="B4" s="26">
+        <f>SUM(D7:D500)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="8">
         <f>B2-B4</f>
         <v>105000</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="5">
         <f>B5/7000</f>
         <v>15</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>50</v>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B9" s="4">
+        <v>5000</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>44062</v>
-      </c>
-      <c r="B10" s="4">
-        <v>5000</v>
+        <v>44061</v>
       </c>
       <c r="C10" s="4">
-        <v>2000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>44061</v>
+        <v>44060</v>
       </c>
       <c r="C11" s="4">
         <v>7000</v>
@@ -3799,7 +4009,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>44060</v>
+        <v>44059</v>
       </c>
       <c r="C12" s="4">
         <v>7000</v>
@@ -3807,15 +4017,18 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>44059</v>
-      </c>
-      <c r="C13" s="4">
-        <v>7000</v>
+        <v>44058</v>
+      </c>
+      <c r="B13" s="4">
+        <v>7000</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3000</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>44058</v>
+        <v>44057</v>
       </c>
       <c r="B14" s="4">
         <v>7000</v>
@@ -3826,7 +4039,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>44057</v>
+        <v>44056</v>
       </c>
       <c r="B15" s="4">
         <v>7000</v>
@@ -3837,45 +4050,42 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>44056</v>
+        <v>44055</v>
       </c>
       <c r="B16" s="4">
-        <v>7000</v>
-      </c>
-      <c r="D16" s="4">
-        <v>3000</v>
+        <v>5000</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2000</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>44055</v>
-      </c>
-      <c r="B17" s="4">
-        <v>5000</v>
+        <v>44054</v>
       </c>
       <c r="C17" s="4">
-        <v>2000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>44054</v>
-      </c>
-      <c r="C18" s="4">
+        <v>44053</v>
+      </c>
+      <c r="B18" s="4">
         <v>7000</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>44053</v>
-      </c>
-      <c r="B19" s="4">
+        <v>44052</v>
+      </c>
+      <c r="C19" s="4">
         <v>7000</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>44052</v>
+        <v>44051</v>
       </c>
       <c r="C20" s="4">
         <v>7000</v>
@@ -3883,7 +4093,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>44051</v>
+        <v>44050</v>
       </c>
       <c r="C21" s="4">
         <v>7000</v>
@@ -3891,15 +4101,15 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>44050</v>
-      </c>
-      <c r="C22" s="4">
+        <v>44049</v>
+      </c>
+      <c r="B22" s="4">
         <v>7000</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>44049</v>
+        <v>44048</v>
       </c>
       <c r="B23" s="4">
         <v>7000</v>
@@ -3907,58 +4117,61 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>44048</v>
-      </c>
-      <c r="B24" s="4">
+        <v>44047</v>
+      </c>
+      <c r="C24" s="4">
         <v>7000</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>44047</v>
-      </c>
-      <c r="C25" s="4">
+        <v>44046</v>
+      </c>
+      <c r="B25" s="4">
         <v>7000</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>44046</v>
-      </c>
-      <c r="B26" s="4">
+        <v>44045</v>
+      </c>
+      <c r="C26" s="4">
         <v>7000</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>44045</v>
+        <v>44044</v>
+      </c>
+      <c r="B27" s="4">
+        <v>5000</v>
       </c>
       <c r="C27" s="4">
-        <v>7000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>44044</v>
-      </c>
-      <c r="B28" s="4">
-        <v>5000</v>
+        <v>44043</v>
       </c>
       <c r="C28" s="4">
-        <v>2000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>44043</v>
-      </c>
-      <c r="C29" s="4">
-        <v>7000</v>
+        <v>44042</v>
+      </c>
+      <c r="B29" s="4">
+        <v>7000</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1000</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>44042</v>
+        <v>44041</v>
       </c>
       <c r="B30" s="4">
         <v>7000</v>
@@ -3969,7 +4182,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>44041</v>
+        <v>44040</v>
       </c>
       <c r="B31" s="4">
         <v>7000</v>
@@ -3980,7 +4193,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>44040</v>
+        <v>44039</v>
       </c>
       <c r="B32" s="4">
         <v>7000</v>
@@ -3991,26 +4204,23 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>44039</v>
-      </c>
-      <c r="B33" s="4">
-        <v>7000</v>
-      </c>
-      <c r="D33" s="4">
-        <v>1000</v>
+        <v>44038</v>
+      </c>
+      <c r="C33" s="4">
+        <v>7000</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>44038</v>
-      </c>
-      <c r="C34" s="4">
+        <v>44037</v>
+      </c>
+      <c r="B34" s="4">
         <v>7000</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>44037</v>
+        <v>44036</v>
       </c>
       <c r="B35" s="4">
         <v>7000</v>
@@ -4018,45 +4228,45 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>44036</v>
-      </c>
-      <c r="B36" s="4">
+        <v>44035</v>
+      </c>
+      <c r="C36" s="4">
         <v>7000</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>44035</v>
-      </c>
-      <c r="C37" s="4">
-        <v>7000</v>
+        <v>44034</v>
+      </c>
+      <c r="B37" s="4">
+        <v>7000</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1000</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>44034</v>
+        <v>44033</v>
       </c>
       <c r="B38" s="4">
         <v>7000</v>
       </c>
       <c r="D38" s="4">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>44033</v>
-      </c>
-      <c r="B39" s="4">
-        <v>7000</v>
-      </c>
-      <c r="D39" s="4">
-        <v>3000</v>
+        <v>44032</v>
+      </c>
+      <c r="C39" s="4">
+        <v>7000</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>44032</v>
+        <v>44031</v>
       </c>
       <c r="C40" s="4">
         <v>7000</v>
@@ -4064,112 +4274,104 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>44031</v>
-      </c>
-      <c r="C41" s="4">
-        <v>7000</v>
+        <v>44030</v>
+      </c>
+      <c r="B41" s="4">
+        <v>7000</v>
+      </c>
+      <c r="D41" s="4">
+        <v>3000</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>44030</v>
-      </c>
-      <c r="B42" s="4">
-        <v>7000</v>
-      </c>
-      <c r="D42" s="4">
-        <v>3000</v>
+        <v>44029</v>
+      </c>
+      <c r="C42" s="4">
+        <v>7000</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>44029</v>
+        <v>44028</v>
+      </c>
+      <c r="B43" s="4">
+        <v>6000</v>
       </c>
       <c r="C43" s="4">
-        <v>7000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>44028</v>
-      </c>
-      <c r="B44" s="4">
-        <v>6000</v>
+        <v>44027</v>
       </c>
       <c r="C44" s="4">
-        <v>1000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>44027</v>
-      </c>
-      <c r="C45" s="4">
-        <v>7000</v>
+        <v>44026</v>
+      </c>
+      <c r="B45" s="4">
+        <v>7000</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1000</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>44026</v>
-      </c>
-      <c r="B46" s="4">
-        <v>7000</v>
-      </c>
-      <c r="D46" s="4">
-        <v>1000</v>
+        <v>44025</v>
+      </c>
+      <c r="C46" s="4">
+        <v>7000</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>44025</v>
-      </c>
-      <c r="C47" s="4">
+        <v>44024</v>
+      </c>
+      <c r="B47" s="4">
         <v>7000</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>44024</v>
+        <v>44023</v>
       </c>
       <c r="B48" s="4">
         <v>7000</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>44023</v>
+        <v>44022</v>
       </c>
       <c r="B49" s="4">
-        <v>7000</v>
-      </c>
-      <c r="D49" s="4">
+        <v>4000</v>
+      </c>
+      <c r="C49" s="4">
         <v>3000</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>44022</v>
+        <v>44021</v>
       </c>
       <c r="B50" s="4">
-        <v>4000</v>
-      </c>
-      <c r="C50" s="4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>44021</v>
-      </c>
-      <c r="B51" s="4">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="27"/>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:A52">
+  <autoFilter ref="A7:A51">
     <sortState ref="A9:D51">
       <sortCondition descending="1" ref="A8:A51"/>
     </sortState>
@@ -4181,18 +4383,18 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja5"/>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -4200,7 +4402,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="9">
-        <f>SUM(C8:C500)</f>
+        <f>SUM(C7:C499)</f>
         <v>172000</v>
       </c>
     </row>
@@ -4209,7 +4411,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9">
-        <f>SUM(B8:B500)</f>
+        <f>SUM(B7:B499)</f>
         <v>108000</v>
       </c>
     </row>
@@ -4218,62 +4420,77 @@
         <v>1</v>
       </c>
       <c r="B4" s="9">
-        <f>SUM(D8:D500)</f>
+        <f>SUM(D7:D499)</f>
         <v>32000</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="28">
+        <v>4</v>
+      </c>
+      <c r="B5" s="26">
         <f>B2-B4</f>
         <v>140000</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4">
         <f>B5/7000</f>
         <v>20</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>50</v>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44062</v>
+      </c>
+      <c r="C9">
+        <v>7000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>44062</v>
-      </c>
-      <c r="C10">
+        <v>44061</v>
+      </c>
+      <c r="B10">
         <v>7000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>44061</v>
-      </c>
-      <c r="B11">
+        <v>44060</v>
+      </c>
+      <c r="C11">
         <v>7000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>44060</v>
+        <v>44059</v>
       </c>
       <c r="C12">
         <v>7000</v>
@@ -4281,15 +4498,15 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>44059</v>
-      </c>
-      <c r="C13">
+        <v>44058</v>
+      </c>
+      <c r="B13">
         <v>7000</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>44058</v>
+        <v>44057</v>
       </c>
       <c r="B14">
         <v>7000</v>
@@ -4297,15 +4514,15 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>44057</v>
-      </c>
-      <c r="B15">
+        <v>44056</v>
+      </c>
+      <c r="C15">
         <v>7000</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>44056</v>
+        <v>44055</v>
       </c>
       <c r="C16">
         <v>7000</v>
@@ -4313,7 +4530,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>44055</v>
+        <v>44054</v>
       </c>
       <c r="C17">
         <v>7000</v>
@@ -4321,7 +4538,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>44054</v>
+        <v>44053</v>
       </c>
       <c r="C18">
         <v>7000</v>
@@ -4329,7 +4546,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>44053</v>
+        <v>44052</v>
       </c>
       <c r="C19">
         <v>7000</v>
@@ -4337,7 +4554,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>44052</v>
+        <v>44051</v>
       </c>
       <c r="C20">
         <v>7000</v>
@@ -4345,7 +4562,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>44051</v>
+        <v>44050</v>
       </c>
       <c r="C21">
         <v>7000</v>
@@ -4353,7 +4570,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>44050</v>
+        <v>44049</v>
       </c>
       <c r="C22">
         <v>7000</v>
@@ -4361,7 +4578,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>44049</v>
+        <v>44048</v>
       </c>
       <c r="C23">
         <v>7000</v>
@@ -4369,7 +4586,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>44048</v>
+        <v>44047</v>
       </c>
       <c r="C24">
         <v>7000</v>
@@ -4377,7 +4594,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>44047</v>
+        <v>44046</v>
       </c>
       <c r="C25">
         <v>7000</v>
@@ -4385,7 +4602,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>44046</v>
+        <v>44045</v>
       </c>
       <c r="C26">
         <v>7000</v>
@@ -4393,7 +4610,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>44045</v>
+        <v>44044</v>
       </c>
       <c r="C27">
         <v>7000</v>
@@ -4401,23 +4618,23 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>44044</v>
-      </c>
-      <c r="C28">
+        <v>44043</v>
+      </c>
+      <c r="B28">
         <v>7000</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>44043</v>
-      </c>
-      <c r="B29">
+        <v>44042</v>
+      </c>
+      <c r="C29">
         <v>7000</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>44042</v>
+        <v>44041</v>
       </c>
       <c r="C30">
         <v>7000</v>
@@ -4425,26 +4642,26 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>44041</v>
-      </c>
-      <c r="C31">
-        <v>7000</v>
+        <v>44040</v>
+      </c>
+      <c r="B31">
+        <v>7000</v>
+      </c>
+      <c r="D31">
+        <v>25000</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>44040</v>
-      </c>
-      <c r="B32">
-        <v>7000</v>
-      </c>
-      <c r="D32">
-        <v>25000</v>
+        <v>44039</v>
+      </c>
+      <c r="C32">
+        <v>7000</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>44039</v>
+        <v>44038</v>
       </c>
       <c r="C33">
         <v>7000</v>
@@ -4452,7 +4669,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>44038</v>
+        <v>44037</v>
       </c>
       <c r="C34">
         <v>7000</v>
@@ -4460,34 +4677,34 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>44037</v>
-      </c>
-      <c r="C35">
-        <v>7000</v>
+        <v>44036</v>
+      </c>
+      <c r="B35">
+        <v>7000</v>
+      </c>
+      <c r="D35">
+        <v>3000</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>44036</v>
-      </c>
-      <c r="B36">
-        <v>7000</v>
-      </c>
-      <c r="D36">
-        <v>3000</v>
+        <v>44035</v>
+      </c>
+      <c r="C36">
+        <v>7000</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>44035</v>
-      </c>
-      <c r="C37">
+        <v>44034</v>
+      </c>
+      <c r="B37">
         <v>7000</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>44034</v>
+        <v>44033</v>
       </c>
       <c r="B38">
         <v>7000</v>
@@ -4495,26 +4712,26 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>44033</v>
+        <v>44032</v>
       </c>
       <c r="B39">
         <v>7000</v>
+      </c>
+      <c r="D39">
+        <v>2000</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>44032</v>
-      </c>
-      <c r="B40">
-        <v>7000</v>
-      </c>
-      <c r="D40">
-        <v>2000</v>
+        <v>44031</v>
+      </c>
+      <c r="C40">
+        <v>7000</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>44031</v>
+        <v>44030</v>
       </c>
       <c r="C41">
         <v>7000</v>
@@ -4522,15 +4739,15 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>44030</v>
-      </c>
-      <c r="C42">
+        <v>44029</v>
+      </c>
+      <c r="B42">
         <v>7000</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>44029</v>
+        <v>44028</v>
       </c>
       <c r="B43">
         <v>7000</v>
@@ -4538,66 +4755,58 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>44028</v>
+        <v>44027</v>
       </c>
       <c r="B44">
-        <v>7000</v>
+        <v>5000</v>
+      </c>
+      <c r="C44">
+        <v>2000</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B45">
-        <v>5000</v>
-      </c>
-      <c r="C45">
-        <v>2000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>44026</v>
+        <v>44025</v>
       </c>
       <c r="B46">
         <v>7000</v>
+      </c>
+      <c r="D46">
+        <v>2000</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>44025</v>
+        <v>44024</v>
       </c>
       <c r="B47">
-        <v>7000</v>
-      </c>
-      <c r="D47">
+        <v>5000</v>
+      </c>
+      <c r="C47">
         <v>2000</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>44024</v>
+        <v>44023</v>
       </c>
       <c r="B48">
-        <v>5000</v>
-      </c>
-      <c r="C48">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>44023</v>
-      </c>
-      <c r="B49">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="2"/>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:A50">
+  <autoFilter ref="A7:A49">
     <sortState ref="A9:E49">
       <sortCondition descending="1" ref="A8:A49"/>
     </sortState>
@@ -4609,11 +4818,11 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja6"/>
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4624,15 +4833,15 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="28">
-        <f>SUM(C10:C500)</f>
+      <c r="B2" s="26">
+        <f>SUM(C9:C499)</f>
         <v>105000</v>
       </c>
     </row>
@@ -4640,8 +4849,8 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28">
-        <f>SUM(B8:B500)</f>
+      <c r="B3" s="26">
+        <f>SUM(B7:B499)</f>
         <v>77000</v>
       </c>
     </row>
@@ -4649,353 +4858,357 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="28">
-        <f>SUM(D8:D500)</f>
+      <c r="B4" s="26">
+        <f>SUM(D7:D499)</f>
         <v>70000</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="8">
         <f>B2-B4</f>
         <v>35000</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="21">
+        <v>15</v>
+      </c>
+      <c r="D5" s="19">
         <f>B5/7000</f>
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>18</v>
+      <c r="A7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="A8" s="7"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D9" s="3"/>
+      <c r="A9" s="25">
+        <v>44062</v>
+      </c>
+      <c r="B9"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="27">
-        <v>44062</v>
+      <c r="A10" s="25">
+        <v>44061</v>
       </c>
       <c r="B10"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="27">
-        <v>44061</v>
+      <c r="A11" s="25">
+        <v>44060</v>
       </c>
       <c r="B11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="27">
-        <v>44060</v>
+      <c r="A12" s="25">
+        <v>44059</v>
       </c>
       <c r="B12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="27">
-        <v>44059</v>
+      <c r="A13" s="25">
+        <v>44058</v>
       </c>
       <c r="B13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="27">
-        <v>44058</v>
+      <c r="A14" s="25">
+        <v>44057</v>
       </c>
       <c r="B14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="27">
-        <v>44057</v>
+      <c r="A15" s="25">
+        <v>44056</v>
       </c>
       <c r="B15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="27">
-        <v>44056</v>
+      <c r="A16" s="25">
+        <v>44055</v>
       </c>
       <c r="B16"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="27">
-        <v>44055</v>
+      <c r="A17" s="25">
+        <v>44054</v>
       </c>
       <c r="B17"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="27">
-        <v>44054</v>
+      <c r="A18" s="25">
+        <v>44053</v>
       </c>
       <c r="B18"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="27">
-        <v>44053</v>
+      <c r="A19" s="25">
+        <v>44052</v>
       </c>
       <c r="B19"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="27">
-        <v>44052</v>
+      <c r="A20" s="25">
+        <v>44051</v>
       </c>
       <c r="B20"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="27">
-        <v>44051</v>
+      <c r="A21" s="25">
+        <v>44050</v>
       </c>
       <c r="B21"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="27">
-        <v>44050</v>
+      <c r="A22" s="25">
+        <v>44049</v>
       </c>
       <c r="B22"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="27">
-        <v>44049</v>
+      <c r="A23" s="25">
+        <v>44048</v>
       </c>
       <c r="B23"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="27">
-        <v>44048</v>
+      <c r="A24" s="25">
+        <v>44047</v>
       </c>
       <c r="B24"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="27">
-        <v>44047</v>
+      <c r="A25" s="25">
+        <v>44046</v>
       </c>
       <c r="B25"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="27">
-        <v>44046</v>
+      <c r="A26" s="25">
+        <v>44045</v>
       </c>
       <c r="B26"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="27">
-        <v>44045</v>
+      <c r="A27" s="25">
+        <v>44044</v>
       </c>
       <c r="B27"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="27">
-        <v>44044</v>
+      <c r="A28" s="25">
+        <v>44043</v>
       </c>
       <c r="B28"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="27">
-        <v>44043</v>
+      <c r="A29" s="25">
+        <v>44042</v>
       </c>
       <c r="B29"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="27">
-        <v>44042</v>
+      <c r="A30" s="25">
+        <v>44041</v>
       </c>
       <c r="B30"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="27">
-        <v>44041</v>
+      <c r="A31" s="25">
+        <v>44040</v>
       </c>
       <c r="B31"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="27">
-        <v>44040</v>
+      <c r="A32" s="25">
+        <v>44039</v>
       </c>
       <c r="B32"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="27">
-        <v>44039</v>
+      <c r="A33" s="25">
+        <v>44038</v>
       </c>
       <c r="B33"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="27">
-        <v>44038</v>
+      <c r="A34" s="25">
+        <v>44037</v>
       </c>
       <c r="B34"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="27">
-        <v>44037</v>
+      <c r="A35" s="25">
+        <v>44036</v>
       </c>
       <c r="B35"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="27">
-        <v>44036</v>
+      <c r="A36" s="25">
+        <v>44035</v>
       </c>
       <c r="B36"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="27">
-        <v>44035</v>
+      <c r="A37" s="25">
+        <v>44034</v>
       </c>
       <c r="B37"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="27">
-        <v>44034</v>
+      <c r="A38" s="25">
+        <v>44033</v>
       </c>
       <c r="B38"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="27">
-        <v>44033</v>
+      <c r="A39" s="25">
+        <v>44032</v>
       </c>
       <c r="B39"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="27">
-        <v>44032</v>
-      </c>
-      <c r="B40"/>
+      <c r="A40" s="25">
+        <v>44031</v>
+      </c>
+      <c r="B40">
+        <v>7000</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="27">
-        <v>44031</v>
+      <c r="A41" s="25">
+        <v>44030</v>
       </c>
       <c r="B41">
         <v>7000</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="27">
-        <v>44030</v>
+      <c r="A42" s="25">
+        <v>44029</v>
       </c>
       <c r="B42">
         <v>7000</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="27">
-        <v>44029</v>
+      <c r="A43" s="25">
+        <v>44028</v>
       </c>
       <c r="B43">
         <v>7000</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="27">
-        <v>44028</v>
+      <c r="A44" s="25">
+        <v>44027</v>
       </c>
       <c r="B44">
         <v>7000</v>
       </c>
+      <c r="D44">
+        <v>20000</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="27">
-        <v>44027</v>
+      <c r="A45" s="25">
+        <v>44026</v>
       </c>
       <c r="B45">
         <v>7000</v>
       </c>
-      <c r="D45">
-        <v>20000</v>
-      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="27">
-        <v>44026</v>
+      <c r="A46" s="25">
+        <v>44025</v>
       </c>
       <c r="B46">
         <v>7000</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="27">
-        <v>44025</v>
+      <c r="A47" s="25">
+        <v>44024</v>
       </c>
       <c r="B47">
         <v>7000</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="27">
-        <v>44024</v>
+      <c r="A48" s="25">
+        <v>44023</v>
       </c>
       <c r="B48">
         <v>7000</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="27">
-        <v>44023</v>
+      <c r="A49" s="25">
+        <v>44022</v>
       </c>
       <c r="B49">
         <v>7000</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="27">
-        <v>44022</v>
+      <c r="A50" s="25">
+        <v>44021</v>
       </c>
       <c r="B50">
         <v>7000</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="27">
-        <v>44021</v>
-      </c>
-      <c r="B51">
-        <v>7000</v>
+      <c r="A51" s="25">
+        <v>44020</v>
+      </c>
+      <c r="B51"/>
+      <c r="D51">
+        <v>50000</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="27">
-        <v>44020</v>
-      </c>
-      <c r="B52"/>
-      <c r="D52">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3">
+      <c r="A52" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3">
         <v>105000</v>
       </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:A53">
+  <autoFilter ref="A7:A52">
     <sortState ref="A9:E53">
       <sortCondition descending="1" ref="A8:A53"/>
     </sortState>
@@ -5007,11 +5220,11 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja7"/>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5021,15 +5234,15 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="28">
-        <f>SUM(C8:C501)</f>
+      <c r="B2" s="26">
+        <f>SUM(C7:C500)</f>
         <v>182000</v>
       </c>
     </row>
@@ -5037,8 +5250,8 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28">
-        <f>SUM(B8:B501)</f>
+      <c r="B3" s="26">
+        <f>SUM(B7:B500)</f>
         <v>98000</v>
       </c>
     </row>
@@ -5046,73 +5259,81 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="28">
-        <f>SUM(D8:D501)</f>
+      <c r="B4" s="26">
+        <f>SUM(D7:D500)</f>
         <v>21000</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="8">
         <f>B2-B4</f>
         <v>161000</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="5">
         <f>B5/7000</f>
         <v>23</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>50</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="3"/>
+      <c r="A9" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B9" s="4">
+        <v>7000</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="B10" s="4">
         <v>7000</v>
+      </c>
+      <c r="D10" s="4">
+        <v>14000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>44061</v>
+        <v>44060</v>
       </c>
       <c r="B11" s="4">
         <v>7000</v>
-      </c>
-      <c r="D11" s="4">
-        <v>14000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>44060</v>
+        <v>44059</v>
       </c>
       <c r="B12" s="4">
         <v>7000</v>
@@ -5120,7 +5341,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>44059</v>
+        <v>44058</v>
       </c>
       <c r="B13" s="4">
         <v>7000</v>
@@ -5128,42 +5349,42 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>44058</v>
-      </c>
-      <c r="B14" s="4">
+        <v>44057</v>
+      </c>
+      <c r="C14" s="4">
         <v>7000</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>44057</v>
-      </c>
-      <c r="C15" s="4">
+        <v>44056</v>
+      </c>
+      <c r="B15" s="4">
+        <v>7000</v>
+      </c>
+      <c r="D15" s="4">
         <v>7000</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>44056</v>
+        <v>44055</v>
       </c>
       <c r="B16" s="4">
-        <v>7000</v>
-      </c>
-      <c r="D16" s="4">
         <v>7000</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>44055</v>
-      </c>
-      <c r="B17" s="4">
+        <v>44054</v>
+      </c>
+      <c r="C17" s="4">
         <v>7000</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>44054</v>
+        <v>44053</v>
       </c>
       <c r="C18" s="4">
         <v>7000</v>
@@ -5171,7 +5392,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>44053</v>
+        <v>44052</v>
       </c>
       <c r="C19" s="4">
         <v>7000</v>
@@ -5179,7 +5400,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>44052</v>
+        <v>44051</v>
       </c>
       <c r="C20" s="4">
         <v>7000</v>
@@ -5187,7 +5408,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>44051</v>
+        <v>44050</v>
       </c>
       <c r="C21" s="4">
         <v>7000</v>
@@ -5195,7 +5416,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>44050</v>
+        <v>44049</v>
       </c>
       <c r="C22" s="4">
         <v>7000</v>
@@ -5203,7 +5424,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>44049</v>
+        <v>44048</v>
       </c>
       <c r="C23" s="4">
         <v>7000</v>
@@ -5211,7 +5432,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>44048</v>
+        <v>44047</v>
       </c>
       <c r="C24" s="4">
         <v>7000</v>
@@ -5219,7 +5440,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>44047</v>
+        <v>44046</v>
       </c>
       <c r="C25" s="4">
         <v>7000</v>
@@ -5227,7 +5448,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>44046</v>
+        <v>44045</v>
       </c>
       <c r="C26" s="4">
         <v>7000</v>
@@ -5235,7 +5456,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>44045</v>
+        <v>44044</v>
       </c>
       <c r="C27" s="4">
         <v>7000</v>
@@ -5243,7 +5464,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>44044</v>
+        <v>44043</v>
       </c>
       <c r="C28" s="4">
         <v>7000</v>
@@ -5251,7 +5472,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>44043</v>
+        <v>44042</v>
       </c>
       <c r="C29" s="4">
         <v>7000</v>
@@ -5259,7 +5480,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>44042</v>
+        <v>44041</v>
       </c>
       <c r="C30" s="4">
         <v>7000</v>
@@ -5267,7 +5488,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>44041</v>
+        <v>44040</v>
       </c>
       <c r="C31" s="4">
         <v>7000</v>
@@ -5275,7 +5496,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>44040</v>
+        <v>44039</v>
       </c>
       <c r="C32" s="4">
         <v>7000</v>
@@ -5283,7 +5504,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>44039</v>
+        <v>44038</v>
       </c>
       <c r="C33" s="4">
         <v>7000</v>
@@ -5291,7 +5512,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>44038</v>
+        <v>44037</v>
       </c>
       <c r="C34" s="4">
         <v>7000</v>
@@ -5299,7 +5520,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>44037</v>
+        <v>44036</v>
       </c>
       <c r="C35" s="4">
         <v>7000</v>
@@ -5307,7 +5528,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>44036</v>
+        <v>44035</v>
       </c>
       <c r="C36" s="4">
         <v>7000</v>
@@ -5315,7 +5536,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>44035</v>
+        <v>44034</v>
       </c>
       <c r="C37" s="4">
         <v>7000</v>
@@ -5323,7 +5544,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>44034</v>
+        <v>44033</v>
       </c>
       <c r="C38" s="4">
         <v>7000</v>
@@ -5331,23 +5552,23 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>44033</v>
-      </c>
-      <c r="C39" s="4">
+        <v>44032</v>
+      </c>
+      <c r="B39" s="4">
         <v>7000</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>44032</v>
-      </c>
-      <c r="B40" s="4">
+        <v>44031</v>
+      </c>
+      <c r="C40" s="4">
         <v>7000</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>44031</v>
+        <v>44030</v>
       </c>
       <c r="C41" s="4">
         <v>7000</v>
@@ -5355,7 +5576,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>44030</v>
+        <v>44029</v>
       </c>
       <c r="C42" s="4">
         <v>7000</v>
@@ -5363,15 +5584,15 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>44029</v>
-      </c>
-      <c r="C43" s="4">
+        <v>44028</v>
+      </c>
+      <c r="B43" s="4">
         <v>7000</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>44028</v>
+        <v>44027</v>
       </c>
       <c r="B44" s="4">
         <v>7000</v>
@@ -5379,7 +5600,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B45" s="4">
         <v>7000</v>
@@ -5387,7 +5608,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>44026</v>
+        <v>44025</v>
       </c>
       <c r="B46" s="4">
         <v>7000</v>
@@ -5395,7 +5616,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>44025</v>
+        <v>44024</v>
       </c>
       <c r="B47" s="4">
         <v>7000</v>
@@ -5403,25 +5624,17 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>44024</v>
+        <v>44023</v>
       </c>
       <c r="B48" s="4">
         <v>7000</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>44023</v>
-      </c>
-      <c r="B49" s="4">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="27"/>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:A50">
+  <autoFilter ref="A7:A49">
     <sortState ref="A9:E49">
       <sortCondition descending="1" ref="A8:A49"/>
     </sortState>
@@ -5433,10 +5646,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja8"/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5446,15 +5659,15 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="28">
-        <f>SUM(C8:C502)</f>
+      <c r="B2" s="26">
+        <f>SUM(C7:C501)</f>
         <v>67000</v>
       </c>
     </row>
@@ -5462,8 +5675,8 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28">
-        <f>SUM(B8:B502)</f>
+      <c r="B3" s="26">
+        <f>SUM(B7:B501)</f>
         <v>0</v>
       </c>
     </row>
@@ -5471,74 +5684,68 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="28">
-        <f>SUM(D8:D502)</f>
+      <c r="B4" s="26">
+        <f>SUM(D7:D501)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="8">
         <f>B2-B4</f>
         <v>67000</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="5">
         <f>B5/7000</f>
         <v>9.5714285714285712</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="5"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>50</v>
-      </c>
+      <c r="A8" s="17"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="A9" s="2">
+        <v>44061</v>
+      </c>
+      <c r="C9" s="4">
+        <v>67000</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>44061</v>
-      </c>
-      <c r="C10" s="4">
-        <v>67000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:A13">
+  <autoFilter ref="A7:A12">
     <sortState ref="A9:E12">
       <sortCondition descending="1" ref="A8:A12"/>
     </sortState>
@@ -5550,10 +5757,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja9"/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5562,94 +5769,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="A1" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="28">
-        <f>SUM(C8:C502)</f>
+      <c r="B2" s="33">
+        <f>SUM(C7:C501)</f>
         <v>209000</v>
       </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28">
-        <f>SUM(B8:B502)</f>
+      <c r="B3" s="33">
+        <f>SUM(B7:B501)</f>
         <v>0</v>
       </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="28">
-        <f>SUM(D8:D502)</f>
+      <c r="B4" s="33">
+        <f>SUM(D7:D501)</f>
         <v>0</v>
       </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="8">
+      <c r="A5" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="34">
         <f>B2-B4</f>
         <v>209000</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="C5" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="31">
         <f>B5/7000</f>
         <v>29.857142857142858</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="32"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>50</v>
-      </c>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="A9" s="2">
+        <v>44061</v>
+      </c>
+      <c r="C9" s="4">
+        <v>209000</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>44061</v>
-      </c>
-      <c r="C10" s="4">
-        <v>209000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:A11">
+  <autoFilter ref="A7:A10">
     <sortState ref="A9:E10">
       <sortCondition descending="1" ref="A8:A10"/>
     </sortState>
